--- a/data/112/BOE/IRBY/Effective Exchange Rate Index - M.xlsx
+++ b/data/112/BOE/IRBY/Effective Exchange Rate Index - M.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,6340 +402,6353 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 22</t>
+          <t>31 Mar 22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.55110000000001</v>
+        <v>81.7881</v>
       </c>
       <c r="C4" t="n">
-        <v>82.2886</v>
+        <v>81.2353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 22</t>
+          <t>28 Feb 22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.69</v>
+        <v>82.55110000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>82.357</v>
+        <v>82.2886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 21</t>
+          <t>31 Jan 22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.37820000000001</v>
+        <v>82.69</v>
       </c>
       <c r="C6" t="n">
-        <v>82.3835</v>
+        <v>82.357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 21</t>
+          <t>31 Dec 21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.4534</v>
+        <v>81.37820000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>81.0421</v>
+        <v>82.3835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 21</t>
+          <t>30 Nov 21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.027</v>
+        <v>81.4534</v>
       </c>
       <c r="C8" t="n">
-        <v>82.17100000000001</v>
+        <v>81.0421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 21</t>
+          <t>31 Oct 21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.5455</v>
+        <v>82.027</v>
       </c>
       <c r="C9" t="n">
-        <v>80.86239999999999</v>
+        <v>82.17100000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 21</t>
+          <t>30 Sep 21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.95999999999999</v>
+        <v>81.5455</v>
       </c>
       <c r="C10" t="n">
-        <v>81.503</v>
+        <v>80.86239999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 21</t>
+          <t>31 Aug 21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.81480000000001</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>82.1807</v>
+        <v>81.503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 21</t>
+          <t>31 Jul 21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.0205</v>
+        <v>81.81480000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>81.6587</v>
+        <v>82.1807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>31 May 21</t>
+          <t>30 Jun 21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.96380000000001</v>
+        <v>82.0205</v>
       </c>
       <c r="C13" t="n">
-        <v>82.30719999999999</v>
+        <v>81.6587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 21</t>
+          <t>31 May 21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.39870000000001</v>
+        <v>81.96380000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>81.04559999999999</v>
+        <v>82.26560000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 21</t>
+          <t>30 Apr 21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.6777</v>
+        <v>81.39870000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>82.0853</v>
+        <v>81.04559999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 21</t>
+          <t>31 Mar 21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.6362</v>
+        <v>81.6777</v>
       </c>
       <c r="C16" t="n">
-        <v>81.3125</v>
+        <v>82.0853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 21</t>
+          <t>28 Feb 21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.0672</v>
+        <v>80.6362</v>
       </c>
       <c r="C17" t="n">
-        <v>79.69670000000001</v>
+        <v>81.3125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 20</t>
+          <t>31 Jan 21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.08159999999999</v>
+        <v>79.0672</v>
       </c>
       <c r="C18" t="n">
-        <v>78.94670000000001</v>
+        <v>79.69670000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 20</t>
+          <t>31 Dec 20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.26990000000001</v>
+        <v>78.08159999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>78.53270000000001</v>
+        <v>78.94670000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 20</t>
+          <t>30 Nov 20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.4422</v>
+        <v>78.26990000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>77.68470000000001</v>
+        <v>78.53270000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 20</t>
+          <t>31 Oct 20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.2313</v>
+        <v>77.4422</v>
       </c>
       <c r="C21" t="n">
-        <v>77.3738</v>
+        <v>77.68470000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 20</t>
+          <t>30 Sep 20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.1777</v>
+        <v>77.2313</v>
       </c>
       <c r="C22" t="n">
-        <v>79.07470000000001</v>
+        <v>77.3738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 20</t>
+          <t>31 Aug 20</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.9676</v>
+        <v>78.1777</v>
       </c>
       <c r="C23" t="n">
-        <v>78.1814</v>
+        <v>78.9374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 20</t>
+          <t>31 Jul 20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.9423</v>
+        <v>76.9676</v>
       </c>
       <c r="C24" t="n">
-        <v>76.0244</v>
+        <v>78.1814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>31 May 20</t>
+          <t>30 Jun 20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.1546</v>
+        <v>76.9423</v>
       </c>
       <c r="C25" t="n">
-        <v>76.6769</v>
+        <v>76.0244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 20</t>
+          <t>31 May 20</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.09610000000001</v>
+        <v>77.1546</v>
       </c>
       <c r="C26" t="n">
-        <v>78.8644</v>
+        <v>76.6769</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 20</t>
+          <t>30 Apr 20</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.81310000000001</v>
+        <v>78.09610000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>77.65130000000001</v>
+        <v>78.8644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 20</t>
+          <t>31 Mar 20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.5873</v>
+        <v>76.81310000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>79.28919999999999</v>
+        <v>77.65130000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 20</t>
+          <t>29 Feb 20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.2701</v>
+        <v>80.5873</v>
       </c>
       <c r="C29" t="n">
-        <v>81.15940000000001</v>
+        <v>79.28919999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 19</t>
+          <t>31 Jan 20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.5624</v>
+        <v>80.2701</v>
       </c>
       <c r="C30" t="n">
-        <v>80.7393</v>
+        <v>81.15940000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 19</t>
+          <t>31 Dec 19</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.5044</v>
+        <v>80.5624</v>
       </c>
       <c r="C31" t="n">
-        <v>80.0184</v>
+        <v>80.7393</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 19</t>
+          <t>30 Nov 19</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.1318</v>
+        <v>79.5044</v>
       </c>
       <c r="C32" t="n">
-        <v>79.41719999999999</v>
+        <v>80.0184</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 19</t>
+          <t>31 Oct 19</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.51609999999999</v>
+        <v>78.1318</v>
       </c>
       <c r="C33" t="n">
-        <v>76.7916</v>
+        <v>79.41719999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 19</t>
+          <t>30 Sep 19</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.76860000000001</v>
+        <v>76.51609999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>75.53230000000001</v>
+        <v>76.7916</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 19</t>
+          <t>31 Aug 19</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.9975</v>
+        <v>74.76860000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>75.0331</v>
+        <v>75.53230000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 19</t>
+          <t>31 Jul 19</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.0885</v>
+        <v>75.9975</v>
       </c>
       <c r="C36" t="n">
-        <v>76.90219999999999</v>
+        <v>75.0331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>31 May 19</t>
+          <t>30 Jun 19</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.688</v>
+        <v>77.0885</v>
       </c>
       <c r="C37" t="n">
-        <v>77.35809999999999</v>
+        <v>76.90219999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 19</t>
+          <t>31 May 19</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79.3331</v>
+        <v>78.688</v>
       </c>
       <c r="C38" t="n">
-        <v>79.6665</v>
+        <v>77.35809999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 19</t>
+          <t>30 Apr 19</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79.8094</v>
+        <v>79.3331</v>
       </c>
       <c r="C39" t="n">
-        <v>79.2985</v>
+        <v>79.6665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 19</t>
+          <t>31 Mar 19</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.70869999999999</v>
+        <v>79.8094</v>
       </c>
       <c r="C40" t="n">
-        <v>80.24720000000001</v>
+        <v>79.2985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 19</t>
+          <t>28 Feb 19</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.6915</v>
+        <v>78.70869999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>78.8601</v>
+        <v>80.24720000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 18</t>
+          <t>31 Jan 19</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>76.6079</v>
+        <v>77.6915</v>
       </c>
       <c r="C42" t="n">
-        <v>76.8103</v>
+        <v>78.8601</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 18</t>
+          <t>31 Dec 18</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.20269999999999</v>
+        <v>76.6079</v>
       </c>
       <c r="C43" t="n">
-        <v>77.4485</v>
+        <v>76.8103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 18</t>
+          <t>30 Nov 18</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.53019999999999</v>
+        <v>78.20269999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>77.7974</v>
+        <v>77.4485</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 18</t>
+          <t>31 Oct 18</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.05289999999999</v>
+        <v>78.53019999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>78.1157</v>
+        <v>77.7974</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 18</t>
+          <t>30 Sep 18</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.2704</v>
+        <v>78.05289999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>77.8032</v>
+        <v>78.1157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 18</t>
+          <t>31 Aug 18</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>78.08069999999999</v>
+        <v>77.2704</v>
       </c>
       <c r="C47" t="n">
-        <v>77.8433</v>
+        <v>77.8032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 18</t>
+          <t>31 Jul 18</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>78.3732</v>
+        <v>78.08069999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>78.2131</v>
+        <v>77.8433</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>31 May 18</t>
+          <t>30 Jun 18</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>78.7032</v>
+        <v>78.3732</v>
       </c>
       <c r="C49" t="n">
-        <v>78.34520000000001</v>
+        <v>78.2131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 18</t>
+          <t>31 May 18</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>80.1747</v>
+        <v>78.7032</v>
       </c>
       <c r="C50" t="n">
-        <v>79.367</v>
+        <v>78.34520000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 18</t>
+          <t>30 Apr 18</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>79.18089999999999</v>
+        <v>80.1747</v>
       </c>
       <c r="C51" t="n">
-        <v>79.7105</v>
+        <v>79.367</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 18</t>
+          <t>31 Mar 18</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>78.9736</v>
+        <v>79.18089999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>78.578</v>
+        <v>79.7105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 18</t>
+          <t>28 Feb 18</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>78.8768</v>
+        <v>78.9736</v>
       </c>
       <c r="C53" t="n">
-        <v>79.89109999999999</v>
+        <v>78.578</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 17</t>
+          <t>31 Jan 18</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>78.2328</v>
+        <v>78.8768</v>
       </c>
       <c r="C54" t="n">
-        <v>78.126</v>
+        <v>79.89109999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 17</t>
+          <t>31 Dec 17</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>77.5673</v>
+        <v>78.2328</v>
       </c>
       <c r="C55" t="n">
-        <v>78.72969999999999</v>
+        <v>78.126</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 17</t>
+          <t>30 Nov 17</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>77.27119999999999</v>
+        <v>77.5673</v>
       </c>
       <c r="C56" t="n">
-        <v>78.2959</v>
+        <v>78.72969999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 17</t>
+          <t>31 Oct 17</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>77.1656</v>
+        <v>77.27119999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>78.30670000000001</v>
+        <v>78.2959</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 17</t>
+          <t>30 Sep 17</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>75.5115</v>
+        <v>77.1656</v>
       </c>
       <c r="C58" t="n">
-        <v>74.7265</v>
+        <v>78.30670000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 17</t>
+          <t>31 Aug 17</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>76.9807</v>
+        <v>75.5115</v>
       </c>
       <c r="C59" t="n">
-        <v>77.001</v>
+        <v>74.7265</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 17</t>
+          <t>31 Jul 17</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>77.0347</v>
+        <v>76.9807</v>
       </c>
       <c r="C60" t="n">
-        <v>77.4543</v>
+        <v>77.001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>31 May 17</t>
+          <t>30 Jun 17</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>78.6053</v>
+        <v>77.0347</v>
       </c>
       <c r="C61" t="n">
-        <v>77.62739999999999</v>
+        <v>77.4543</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 17</t>
+          <t>31 May 17</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>78.1858</v>
+        <v>78.6053</v>
       </c>
       <c r="C62" t="n">
-        <v>79.3681</v>
+        <v>77.62739999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 17</t>
+          <t>30 Apr 17</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>76.5431</v>
+        <v>78.1858</v>
       </c>
       <c r="C63" t="n">
-        <v>77.4254</v>
+        <v>79.3681</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 17</t>
+          <t>31 Mar 17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>77.5865</v>
+        <v>76.5431</v>
       </c>
       <c r="C64" t="n">
-        <v>77.3673</v>
+        <v>77.4254</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 17</t>
+          <t>28 Feb 17</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>77.00020000000001</v>
+        <v>77.5865</v>
       </c>
       <c r="C65" t="n">
-        <v>77.6095</v>
+        <v>77.3673</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 16</t>
+          <t>31 Jan 17</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>78.2758</v>
+        <v>77.00020000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>77.37690000000001</v>
+        <v>77.6095</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 16</t>
+          <t>31 Dec 16</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>76.6855</v>
+        <v>78.2758</v>
       </c>
       <c r="C67" t="n">
-        <v>78.13379999999999</v>
+        <v>77.37690000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 16</t>
+          <t>30 Nov 16</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>74.6939</v>
+        <v>76.6855</v>
       </c>
       <c r="C68" t="n">
-        <v>74.376</v>
+        <v>78.13379999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 16</t>
+          <t>31 Oct 16</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>78.6799</v>
+        <v>74.6939</v>
       </c>
       <c r="C69" t="n">
-        <v>77.67400000000001</v>
+        <v>74.376</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 16</t>
+          <t>30 Sep 16</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>78.36060000000001</v>
+        <v>78.6799</v>
       </c>
       <c r="C70" t="n">
-        <v>78.87479999999999</v>
+        <v>77.67400000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 16</t>
+          <t>31 Aug 16</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>79.3772</v>
+        <v>78.36060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>79.6456</v>
+        <v>78.87479999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 16</t>
+          <t>31 Jul 16</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>84.9238</v>
+        <v>79.3772</v>
       </c>
       <c r="C72" t="n">
-        <v>80.61920000000001</v>
+        <v>79.6456</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>31 May 16</t>
+          <t>30 Jun 16</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>86.6549</v>
+        <v>84.9238</v>
       </c>
       <c r="C73" t="n">
-        <v>87.7987</v>
+        <v>80.61920000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 16</t>
+          <t>31 May 16</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>84.92700000000001</v>
+        <v>86.6549</v>
       </c>
       <c r="C74" t="n">
-        <v>86.39960000000001</v>
+        <v>87.7987</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 16</t>
+          <t>30 Apr 16</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>85.74679999999999</v>
+        <v>84.92700000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>85.1429</v>
+        <v>86.39960000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 16</t>
+          <t>31 Mar 16</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>86.6592</v>
+        <v>85.74679999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>85.35809999999999</v>
+        <v>85.1429</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 16</t>
+          <t>29 Feb 16</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>88.45269999999999</v>
+        <v>86.6592</v>
       </c>
       <c r="C77" t="n">
-        <v>87.4889</v>
+        <v>85.35809999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 15</t>
+          <t>31 Jan 16</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>91.5012</v>
+        <v>88.45269999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>90.4205</v>
+        <v>87.4889</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 15</t>
+          <t>31 Dec 15</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>93.34050000000001</v>
+        <v>91.5012</v>
       </c>
       <c r="C79" t="n">
-        <v>93.4143</v>
+        <v>90.4205</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 15</t>
+          <t>30 Nov 15</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>91.5605</v>
+        <v>93.34050000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>93.1742</v>
+        <v>93.4143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 15</t>
+          <t>31 Oct 15</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>91.80119999999999</v>
+        <v>91.5605</v>
       </c>
       <c r="C81" t="n">
-        <v>91.0074</v>
+        <v>93.1742</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 15</t>
+          <t>30 Sep 15</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>93.43810000000001</v>
+        <v>91.80119999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>91.8952</v>
+        <v>91.0074</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 15</t>
+          <t>31 Aug 15</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>93.28400000000001</v>
+        <v>93.43810000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>93.5908</v>
+        <v>91.8952</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 15</t>
+          <t>31 Jul 15</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>92.0894</v>
+        <v>93.28400000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>93.3964</v>
+        <v>93.5908</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>31 May 15</t>
+          <t>30 Jun 15</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>91.295</v>
+        <v>92.0894</v>
       </c>
       <c r="C85" t="n">
-        <v>91.3999</v>
+        <v>93.3964</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 15</t>
+          <t>31 May 15</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>90.1297</v>
+        <v>91.295</v>
       </c>
       <c r="C86" t="n">
-        <v>90.6789</v>
+        <v>91.3999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 15</t>
+          <t>30 Apr 15</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>90.3732</v>
+        <v>90.1297</v>
       </c>
       <c r="C87" t="n">
-        <v>89.9674</v>
+        <v>90.6789</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 15</t>
+          <t>31 Mar 15</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>90.0423</v>
+        <v>90.3732</v>
       </c>
       <c r="C88" t="n">
-        <v>91.4063</v>
+        <v>89.9674</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 15</t>
+          <t>28 Feb 15</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>87.7208</v>
+        <v>90.0423</v>
       </c>
       <c r="C89" t="n">
-        <v>88.54259999999999</v>
+        <v>91.4063</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 14</t>
+          <t>31 Jan 15</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>87.50839999999999</v>
+        <v>87.7208</v>
       </c>
       <c r="C90" t="n">
-        <v>88.2543</v>
+        <v>88.54259999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 14</t>
+          <t>31 Dec 14</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>86.9781</v>
+        <v>87.50839999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>86.6031</v>
+        <v>88.2543</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 14</t>
+          <t>30 Nov 14</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>87.35339999999999</v>
+        <v>86.9781</v>
       </c>
       <c r="C92" t="n">
-        <v>87.7548</v>
+        <v>86.6031</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 14</t>
+          <t>31 Oct 14</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>87.5039</v>
+        <v>87.35339999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>88.3381</v>
+        <v>87.7548</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 14</t>
+          <t>30 Sep 14</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>87.7645</v>
+        <v>87.5039</v>
       </c>
       <c r="C94" t="n">
-        <v>87.8306</v>
+        <v>88.3381</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 14</t>
+          <t>31 Aug 14</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>88.73869999999999</v>
+        <v>87.7645</v>
       </c>
       <c r="C95" t="n">
-        <v>88.51430000000001</v>
+        <v>87.8306</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 14</t>
+          <t>31 Jul 14</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>87.6795</v>
+        <v>88.73869999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>88.27200000000001</v>
+        <v>88.51430000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>31 May 14</t>
+          <t>30 Jun 14</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>86.8395</v>
+        <v>87.6795</v>
       </c>
       <c r="C97" t="n">
-        <v>86.8322</v>
+        <v>88.27200000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 14</t>
+          <t>31 May 14</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>86.1716</v>
+        <v>86.8395</v>
       </c>
       <c r="C98" t="n">
-        <v>86.7514</v>
+        <v>86.8322</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 14</t>
+          <t>30 Apr 14</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>85.5269</v>
+        <v>86.1716</v>
       </c>
       <c r="C99" t="n">
-        <v>85.87179999999999</v>
+        <v>86.7514</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 14</t>
+          <t>31 Mar 14</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>85.73779999999999</v>
+        <v>85.5269</v>
       </c>
       <c r="C100" t="n">
-        <v>86.2778</v>
+        <v>85.87179999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 14</t>
+          <t>28 Feb 14</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>85.4222</v>
+        <v>85.73779999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>85.8719</v>
+        <v>86.2778</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 13</t>
+          <t>31 Jan 14</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>84.4204</v>
+        <v>85.4222</v>
       </c>
       <c r="C102" t="n">
-        <v>85.1155</v>
+        <v>85.8719</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 13</t>
+          <t>31 Dec 13</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>83.5617</v>
+        <v>84.4204</v>
       </c>
       <c r="C103" t="n">
-        <v>84.70050000000001</v>
+        <v>85.1155</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 13</t>
+          <t>30 Nov 13</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>82.66759999999999</v>
+        <v>83.5617</v>
       </c>
       <c r="C104" t="n">
-        <v>82.7525</v>
+        <v>84.70050000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 13</t>
+          <t>31 Oct 13</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>82.7393</v>
+        <v>82.66759999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>83.71420000000001</v>
+        <v>82.7525</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 13</t>
+          <t>30 Sep 13</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>80.9894</v>
+        <v>82.7393</v>
       </c>
       <c r="C106" t="n">
-        <v>81.49120000000001</v>
+        <v>83.71420000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 13</t>
+          <t>31 Aug 13</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>79.96980000000001</v>
+        <v>80.9894</v>
       </c>
       <c r="C107" t="n">
-        <v>79.24039999999999</v>
+        <v>81.49120000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 13</t>
+          <t>31 Jul 13</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>80.9967</v>
+        <v>79.96980000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>80.28740000000001</v>
+        <v>79.24039999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>31 May 13</t>
+          <t>30 Jun 13</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>80.4286</v>
+        <v>80.9967</v>
       </c>
       <c r="C109" t="n">
-        <v>80.1305</v>
+        <v>80.28740000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 13</t>
+          <t>31 May 13</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>80.1289</v>
+        <v>80.4286</v>
       </c>
       <c r="C110" t="n">
-        <v>80.8288</v>
+        <v>80.1305</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 13</t>
+          <t>30 Apr 13</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>79.0951</v>
+        <v>80.1289</v>
       </c>
       <c r="C111" t="n">
-        <v>80.0329</v>
+        <v>80.8288</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 13</t>
+          <t>31 Mar 13</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>79.7012</v>
+        <v>79.0951</v>
       </c>
       <c r="C112" t="n">
-        <v>79.14870000000001</v>
+        <v>80.0329</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 13</t>
+          <t>28 Feb 13</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>82.1724</v>
+        <v>79.7012</v>
       </c>
       <c r="C113" t="n">
-        <v>80.8004</v>
+        <v>79.14870000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 12</t>
+          <t>31 Jan 13</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>83.58</v>
+        <v>82.1724</v>
       </c>
       <c r="C114" t="n">
-        <v>83.7694</v>
+        <v>80.8004</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 12</t>
+          <t>31 Dec 12</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>83.6808</v>
+        <v>83.58</v>
       </c>
       <c r="C115" t="n">
-        <v>83.38079999999999</v>
+        <v>83.7694</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 12</t>
+          <t>30 Nov 12</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>83.61960000000001</v>
+        <v>83.6808</v>
       </c>
       <c r="C116" t="n">
-        <v>83.9071</v>
+        <v>83.38079999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 12</t>
+          <t>31 Oct 12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>84.22629999999999</v>
+        <v>83.61960000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>84.2974</v>
+        <v>83.9071</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 12</t>
+          <t>30 Sep 12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>84.0155</v>
+        <v>84.22629999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>84.1691</v>
+        <v>84.2974</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 12</t>
+          <t>31 Aug 12</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>84.00060000000001</v>
+        <v>84.0155</v>
       </c>
       <c r="C119" t="n">
-        <v>84.12439999999999</v>
+        <v>84.1691</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 12</t>
+          <t>31 Jul 12</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>83.0904</v>
+        <v>84.00060000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>83.0586</v>
+        <v>84.12439999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>31 May 12</t>
+          <t>30 Jun 12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>83.8068</v>
+        <v>83.0904</v>
       </c>
       <c r="C121" t="n">
-        <v>83.077</v>
+        <v>83.0586</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 12</t>
+          <t>31 May 12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>82.5667</v>
+        <v>83.8068</v>
       </c>
       <c r="C122" t="n">
-        <v>83.45099999999999</v>
+        <v>83.077</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 12</t>
+          <t>30 Apr 12</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>81.4148</v>
+        <v>82.5667</v>
       </c>
       <c r="C123" t="n">
-        <v>81.87269999999999</v>
+        <v>83.45099999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 12</t>
+          <t>31 Mar 12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>80.9911</v>
+        <v>81.4148</v>
       </c>
       <c r="C124" t="n">
-        <v>81.3313</v>
+        <v>81.87269999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 12</t>
+          <t>29 Feb 12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>81.1127</v>
+        <v>80.9911</v>
       </c>
       <c r="C125" t="n">
-        <v>81.4614</v>
+        <v>81.3313</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 11</t>
+          <t>31 Jan 12</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>80.9046</v>
+        <v>81.1127</v>
       </c>
       <c r="C126" t="n">
-        <v>81.07259999999999</v>
+        <v>81.4614</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 11</t>
+          <t>31 Dec 11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>80.47239999999999</v>
+        <v>80.9046</v>
       </c>
       <c r="C127" t="n">
-        <v>80.4512</v>
+        <v>81.07259999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 11</t>
+          <t>30 Nov 11</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>79.53189999999999</v>
+        <v>80.47239999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>80.4432</v>
+        <v>80.4512</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 11</t>
+          <t>31 Oct 11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>79.2594</v>
+        <v>79.53189999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>79.8746</v>
+        <v>80.4432</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 11</t>
+          <t>30 Sep 11</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>79.63339999999999</v>
+        <v>79.2594</v>
       </c>
       <c r="C130" t="n">
-        <v>79.04859999999999</v>
+        <v>79.8746</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 11</t>
+          <t>31 Aug 11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>78.7589</v>
+        <v>79.63339999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>79.5241</v>
+        <v>79.04859999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 11</t>
+          <t>31 Jul 11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>78.8754</v>
+        <v>78.7589</v>
       </c>
       <c r="C132" t="n">
-        <v>77.79949999999999</v>
+        <v>79.5241</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>31 May 11</t>
+          <t>30 Jun 11</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>79.7731</v>
+        <v>78.8754</v>
       </c>
       <c r="C133" t="n">
-        <v>80.1765</v>
+        <v>77.79949999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 11</t>
+          <t>31 May 11</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>79.66070000000001</v>
+        <v>79.7731</v>
       </c>
       <c r="C134" t="n">
-        <v>79.6164</v>
+        <v>80.1765</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 11</t>
+          <t>30 Apr 11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>80.2508</v>
+        <v>79.66070000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>79.0102</v>
+        <v>79.6164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 11</t>
+          <t>31 Mar 11</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>81.4918</v>
+        <v>80.2508</v>
       </c>
       <c r="C136" t="n">
-        <v>81.4837</v>
+        <v>79.0102</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 11</t>
+          <t>28 Feb 11</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>80.715</v>
+        <v>81.4918</v>
       </c>
       <c r="C137" t="n">
-        <v>80.8111</v>
+        <v>81.4837</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 10</t>
+          <t>31 Jan 11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>80.41549999999999</v>
+        <v>80.715</v>
       </c>
       <c r="C138" t="n">
-        <v>79.742</v>
+        <v>80.8111</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 10</t>
+          <t>31 Dec 10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>80.96339999999999</v>
+        <v>80.41549999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>81.36660000000001</v>
+        <v>79.742</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 10</t>
+          <t>30 Nov 10</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>79.51049999999999</v>
+        <v>80.96339999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>80.19070000000001</v>
+        <v>81.36660000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 10</t>
+          <t>31 Oct 10</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>81.21939999999999</v>
+        <v>79.51049999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>79.9508</v>
+        <v>80.19070000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 10</t>
+          <t>30 Sep 10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>82.6434</v>
+        <v>81.21939999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>81.8212</v>
+        <v>79.9508</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 10</t>
+          <t>31 Aug 10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>81.4286</v>
+        <v>82.6434</v>
       </c>
       <c r="C143" t="n">
-        <v>82.262</v>
+        <v>81.8212</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 10</t>
+          <t>31 Jul 10</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>81.0391</v>
+        <v>81.4286</v>
       </c>
       <c r="C144" t="n">
-        <v>81.8473</v>
+        <v>82.262</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>31 May 10</t>
+          <t>30 Jun 10</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>79.256</v>
+        <v>81.0391</v>
       </c>
       <c r="C145" t="n">
-        <v>79.0688</v>
+        <v>81.8473</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 10</t>
+          <t>31 May 10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>79.3991</v>
+        <v>79.256</v>
       </c>
       <c r="C146" t="n">
-        <v>79.673</v>
+        <v>79.0688</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 10</t>
+          <t>30 Apr 10</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>77.5264</v>
+        <v>79.3991</v>
       </c>
       <c r="C147" t="n">
-        <v>78.22750000000001</v>
+        <v>79.673</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 10</t>
+          <t>31 Mar 10</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>80.30540000000001</v>
+        <v>77.5264</v>
       </c>
       <c r="C148" t="n">
-        <v>78.27889999999999</v>
+        <v>78.22750000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 10</t>
+          <t>28 Feb 10</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>81.02630000000001</v>
+        <v>80.30540000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>81.6647</v>
+        <v>78.27889999999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 09</t>
+          <t>31 Jan 10</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>80.4836</v>
+        <v>81.02630000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>80.8768</v>
+        <v>81.6647</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 09</t>
+          <t>31 Dec 09</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>81.1217</v>
+        <v>80.4836</v>
       </c>
       <c r="C151" t="n">
-        <v>79.8437</v>
+        <v>80.8768</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 09</t>
+          <t>30 Nov 09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>79.56059999999999</v>
+        <v>81.1217</v>
       </c>
       <c r="C152" t="n">
-        <v>81.30240000000001</v>
+        <v>79.8437</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 09</t>
+          <t>31 Oct 09</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>81.3429</v>
+        <v>79.56059999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>79.3271</v>
+        <v>81.30240000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 09</t>
+          <t>30 Sep 09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>83.6604</v>
+        <v>81.3429</v>
       </c>
       <c r="C154" t="n">
-        <v>82.063</v>
+        <v>79.3271</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 09</t>
+          <t>31 Aug 09</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>83.7774</v>
+        <v>83.6604</v>
       </c>
       <c r="C155" t="n">
-        <v>84.20659999999999</v>
+        <v>82.063</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 09</t>
+          <t>31 Jul 09</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>84.1938</v>
+        <v>83.7774</v>
       </c>
       <c r="C156" t="n">
-        <v>84.64239999999999</v>
+        <v>84.20659999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>31 May 09</t>
+          <t>30 Jun 09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>80.6503</v>
+        <v>84.1938</v>
       </c>
       <c r="C157" t="n">
-        <v>82.2761</v>
+        <v>84.64239999999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 09</t>
+          <t>31 May 09</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>79.11960000000001</v>
+        <v>80.6503</v>
       </c>
       <c r="C158" t="n">
-        <v>79.1583</v>
+        <v>82.2761</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 09</t>
+          <t>30 Apr 09</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>77.2405</v>
+        <v>79.11960000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>77.08969999999999</v>
+        <v>79.1583</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 09</t>
+          <t>31 Mar 09</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>79.1636</v>
+        <v>77.2405</v>
       </c>
       <c r="C160" t="n">
-        <v>79.0809</v>
+        <v>77.08969999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 09</t>
+          <t>28 Feb 09</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>77.2854</v>
+        <v>79.1636</v>
       </c>
       <c r="C161" t="n">
-        <v>78.8703</v>
+        <v>79.0809</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 08</t>
+          <t>31 Jan 09</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>78.4573</v>
+        <v>77.2854</v>
       </c>
       <c r="C162" t="n">
-        <v>74.393</v>
+        <v>78.8703</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 08</t>
+          <t>31 Dec 08</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>83.8163</v>
+        <v>78.4573</v>
       </c>
       <c r="C163" t="n">
-        <v>84.22110000000001</v>
+        <v>74.393</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 08</t>
+          <t>30 Nov 08</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>89.63249999999999</v>
+        <v>83.8163</v>
       </c>
       <c r="C164" t="n">
-        <v>88.20189999999999</v>
+        <v>84.22110000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 08</t>
+          <t>31 Oct 08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>90.02760000000001</v>
+        <v>89.63249999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>90.676</v>
+        <v>88.20189999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 08</t>
+          <t>30 Sep 08</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>91.6756</v>
+        <v>90.02760000000001</v>
       </c>
       <c r="C166" t="n">
-        <v>89.62909999999999</v>
+        <v>90.676</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 08</t>
+          <t>31 Aug 08</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>93.25190000000001</v>
+        <v>91.6756</v>
       </c>
       <c r="C167" t="n">
-        <v>93.465</v>
+        <v>89.62909999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 08</t>
+          <t>31 Jul 08</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>93.1301</v>
+        <v>93.25190000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>93.4817</v>
+        <v>93.465</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>31 May 08</t>
+          <t>30 Jun 08</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>93.01090000000001</v>
+        <v>93.1301</v>
       </c>
       <c r="C169" t="n">
-        <v>93.5844</v>
+        <v>93.4817</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 08</t>
+          <t>31 May 08</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>93.0102</v>
+        <v>93.01090000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>93.6909</v>
+        <v>93.5844</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 08</t>
+          <t>30 Apr 08</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>94.7938</v>
+        <v>93.0102</v>
       </c>
       <c r="C171" t="n">
-        <v>93.0138</v>
+        <v>93.6909</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 08</t>
+          <t>31 Mar 08</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>96.1707</v>
+        <v>94.7938</v>
       </c>
       <c r="C172" t="n">
-        <v>95.4575</v>
+        <v>93.0138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 08</t>
+          <t>29 Feb 08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>96.65260000000001</v>
+        <v>96.1707</v>
       </c>
       <c r="C173" t="n">
-        <v>97.1584</v>
+        <v>95.4575</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 07</t>
+          <t>31 Jan 08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.9431</v>
+        <v>96.65260000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>98.2816</v>
+        <v>97.1584</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 07</t>
+          <t>31 Dec 07</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>101.8979</v>
+        <v>99.9431</v>
       </c>
       <c r="C175" t="n">
-        <v>101.3367</v>
+        <v>98.2816</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 07</t>
+          <t>30 Nov 07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>102.8115</v>
+        <v>101.8979</v>
       </c>
       <c r="C176" t="n">
-        <v>103.202</v>
+        <v>101.3367</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 07</t>
+          <t>31 Oct 07</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>103.3043</v>
+        <v>102.8115</v>
       </c>
       <c r="C177" t="n">
-        <v>102.5814</v>
+        <v>103.202</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 07</t>
+          <t>30 Sep 07</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>104.5358</v>
+        <v>103.3043</v>
       </c>
       <c r="C178" t="n">
-        <v>104.7975</v>
+        <v>102.5814</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 07</t>
+          <t>31 Aug 07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>105.2358</v>
+        <v>104.5358</v>
       </c>
       <c r="C179" t="n">
-        <v>105.2788</v>
+        <v>104.7975</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 07</t>
+          <t>31 Jul 07</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>104.5064</v>
+        <v>105.2358</v>
       </c>
       <c r="C180" t="n">
-        <v>105.0903</v>
+        <v>105.2788</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>31 May 07</t>
+          <t>30 Jun 07</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>103.9116</v>
+        <v>104.5064</v>
       </c>
       <c r="C181" t="n">
-        <v>103.8882</v>
+        <v>105.0903</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 07</t>
+          <t>31 May 07</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>104.2757</v>
+        <v>103.9116</v>
       </c>
       <c r="C182" t="n">
-        <v>104.1901</v>
+        <v>103.8882</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 07</t>
+          <t>30 Apr 07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>103.5672</v>
+        <v>104.2757</v>
       </c>
       <c r="C183" t="n">
-        <v>103.9542</v>
+        <v>104.1901</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 07</t>
+          <t>31 Mar 07</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>105.0314</v>
+        <v>103.5672</v>
       </c>
       <c r="C184" t="n">
-        <v>104.4827</v>
+        <v>103.9542</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 07</t>
+          <t>28 Feb 07</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>105.5742</v>
+        <v>105.0314</v>
       </c>
       <c r="C185" t="n">
-        <v>105.519</v>
+        <v>104.4827</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 06</t>
+          <t>31 Jan 07</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>104.5347</v>
+        <v>105.5742</v>
       </c>
       <c r="C186" t="n">
-        <v>104.4215</v>
+        <v>105.519</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 06</t>
+          <t>31 Dec 06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>103.4687</v>
+        <v>104.5347</v>
       </c>
       <c r="C187" t="n">
-        <v>104.5024</v>
+        <v>104.4215</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 06</t>
+          <t>30 Nov 06</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>103.1454</v>
+        <v>103.4687</v>
       </c>
       <c r="C188" t="n">
-        <v>103.8754</v>
+        <v>104.5024</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 06</t>
+          <t>31 Oct 06</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>103.0143</v>
+        <v>103.1454</v>
       </c>
       <c r="C189" t="n">
-        <v>102.504</v>
+        <v>103.8754</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 06</t>
+          <t>30 Sep 06</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>102.9585</v>
+        <v>103.0143</v>
       </c>
       <c r="C190" t="n">
-        <v>103.5295</v>
+        <v>102.504</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 06</t>
+          <t>31 Aug 06</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>100.9425</v>
+        <v>102.9585</v>
       </c>
       <c r="C191" t="n">
-        <v>101.6373</v>
+        <v>103.5295</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 06</t>
+          <t>31 Jul 06</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>100.9566</v>
+        <v>100.9425</v>
       </c>
       <c r="C192" t="n">
-        <v>100.7012</v>
+        <v>101.6373</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>31 May 06</t>
+          <t>30 Jun 06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>101.2654</v>
+        <v>100.9566</v>
       </c>
       <c r="C193" t="n">
-        <v>101.3729</v>
+        <v>100.7012</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 06</t>
+          <t>31 May 06</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>98.3764</v>
+        <v>101.2654</v>
       </c>
       <c r="C194" t="n">
-        <v>99.30589999999999</v>
+        <v>101.3729</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 06</t>
+          <t>30 Apr 06</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>98.3583</v>
+        <v>98.3764</v>
       </c>
       <c r="C195" t="n">
-        <v>97.56529999999999</v>
+        <v>99.30589999999999</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 06</t>
+          <t>31 Mar 06</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>98.91679999999999</v>
+        <v>98.3583</v>
       </c>
       <c r="C196" t="n">
-        <v>99.13079999999999</v>
+        <v>97.56529999999999</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 06</t>
+          <t>28 Feb 06</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>99.0583</v>
+        <v>98.91679999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>99.4962</v>
+        <v>99.13079999999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 05</t>
+          <t>31 Jan 06</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>99.50700000000001</v>
+        <v>99.0583</v>
       </c>
       <c r="C198" t="n">
-        <v>98.1431</v>
+        <v>99.4962</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 05</t>
+          <t>31 Dec 05</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>99.4195</v>
+        <v>99.50700000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>99.1511</v>
+        <v>98.1431</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 05</t>
+          <t>30 Nov 05</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>99.6486</v>
+        <v>99.4195</v>
       </c>
       <c r="C200" t="n">
-        <v>100.3398</v>
+        <v>99.1511</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 05</t>
+          <t>31 Oct 05</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>100.6456</v>
+        <v>99.6486</v>
       </c>
       <c r="C201" t="n">
-        <v>99.55</v>
+        <v>100.3398</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 05</t>
+          <t>30 Sep 05</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>99.7011</v>
+        <v>100.6456</v>
       </c>
       <c r="C202" t="n">
-        <v>99.9683</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 05</t>
+          <t>31 Aug 05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>98.8169</v>
+        <v>99.7011</v>
       </c>
       <c r="C203" t="n">
-        <v>98.6628</v>
+        <v>99.9683</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 05</t>
+          <t>31 Jul 05</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>101.7515</v>
+        <v>98.8169</v>
       </c>
       <c r="C204" t="n">
-        <v>100.7498</v>
+        <v>98.6628</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>31 May 05</t>
+          <t>30 Jun 05</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>100.9896</v>
+        <v>101.7515</v>
       </c>
       <c r="C205" t="n">
-        <v>101.0121</v>
+        <v>100.7498</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 05</t>
+          <t>31 May 05</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>102.0108</v>
+        <v>100.9896</v>
       </c>
       <c r="C206" t="n">
-        <v>102.7493</v>
+        <v>101.0121</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 05</t>
+          <t>30 Apr 05</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>101.0634</v>
+        <v>102.0108</v>
       </c>
       <c r="C207" t="n">
-        <v>101.3605</v>
+        <v>102.7493</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 05</t>
+          <t>31 Mar 05</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>100.9792</v>
+        <v>101.0634</v>
       </c>
       <c r="C208" t="n">
-        <v>101.5975</v>
+        <v>101.3605</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 05</t>
+          <t>28 Feb 05</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>100</v>
+        <v>100.9792</v>
       </c>
       <c r="C209" t="n">
-        <v>100.7873</v>
+        <v>101.5975</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 04</t>
+          <t>31 Jan 05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>101.2974</v>
+        <v>100</v>
       </c>
       <c r="C210" t="n">
-        <v>99.8254</v>
+        <v>100.7873</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 04</t>
+          <t>31 Dec 04</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>99.7587</v>
+        <v>101.2974</v>
       </c>
       <c r="C211" t="n">
-        <v>100.8405</v>
+        <v>99.8254</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 04</t>
+          <t>30 Nov 04</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>99.83029999999999</v>
+        <v>99.7587</v>
       </c>
       <c r="C212" t="n">
-        <v>99.8353</v>
+        <v>100.8405</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 04</t>
+          <t>31 Oct 04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>100.7156</v>
+        <v>99.83029999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>100.5669</v>
+        <v>99.8353</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 04</t>
+          <t>30 Sep 04</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>102.4289</v>
+        <v>100.7156</v>
       </c>
       <c r="C214" t="n">
-        <v>101.4574</v>
+        <v>100.5669</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 04</t>
+          <t>31 Aug 04</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>103.1662</v>
+        <v>102.4289</v>
       </c>
       <c r="C215" t="n">
-        <v>103.2015</v>
+        <v>101.4574</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 04</t>
+          <t>31 Jul 04</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103.059</v>
+        <v>103.1662</v>
       </c>
       <c r="C216" t="n">
-        <v>102.1039</v>
+        <v>103.2015</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>31 May 04</t>
+          <t>30 Jun 04</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>101.7871</v>
+        <v>103.059</v>
       </c>
       <c r="C217" t="n">
-        <v>103.0878</v>
+        <v>102.1039</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 04</t>
+          <t>31 May 04</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>102.137</v>
+        <v>101.7871</v>
       </c>
       <c r="C218" t="n">
-        <v>100.8725</v>
+        <v>103.0878</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 04</t>
+          <t>30 Apr 04</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.1884</v>
+        <v>102.137</v>
       </c>
       <c r="C219" t="n">
-        <v>102.2435</v>
+        <v>100.8725</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 04</t>
+          <t>31 Mar 04</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.5025</v>
+        <v>102.1884</v>
       </c>
       <c r="C220" t="n">
-        <v>103.1113</v>
+        <v>102.2435</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 04</t>
+          <t>29 Feb 04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>100.1608</v>
+        <v>102.5025</v>
       </c>
       <c r="C221" t="n">
-        <v>101.0243</v>
+        <v>103.1113</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 03</t>
+          <t>31 Jan 04</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>97.86969999999999</v>
+        <v>100.1608</v>
       </c>
       <c r="C222" t="n">
-        <v>98.41849999999999</v>
+        <v>101.0243</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 03</t>
+          <t>31 Dec 03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>97.31699999999999</v>
+        <v>97.86969999999999</v>
       </c>
       <c r="C223" t="n">
-        <v>97.60469999999999</v>
+        <v>98.41849999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 03</t>
+          <t>30 Nov 03</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>96.71850000000001</v>
+        <v>97.31699999999999</v>
       </c>
       <c r="C224" t="n">
-        <v>98.2192</v>
+        <v>97.60469999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 03</t>
+          <t>31 Oct 03</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>95.5651</v>
+        <v>96.71850000000001</v>
       </c>
       <c r="C225" t="n">
-        <v>96.1041</v>
+        <v>98.2192</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 03</t>
+          <t>30 Sep 03</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>95.2462</v>
+        <v>95.5651</v>
       </c>
       <c r="C226" t="n">
-        <v>95.2308</v>
+        <v>96.1041</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 03</t>
+          <t>31 Aug 03</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>95.91549999999999</v>
+        <v>95.2462</v>
       </c>
       <c r="C227" t="n">
-        <v>95.6258</v>
+        <v>95.2308</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 03</t>
+          <t>31 Jul 03</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>96.61360000000001</v>
+        <v>95.91549999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>96.9498</v>
+        <v>95.6258</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>31 May 03</t>
+          <t>30 Jun 03</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>94.8862</v>
+        <v>96.61360000000001</v>
       </c>
       <c r="C229" t="n">
-        <v>94.9308</v>
+        <v>96.9498</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 03</t>
+          <t>31 May 03</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>95.95569999999999</v>
+        <v>94.8862</v>
       </c>
       <c r="C230" t="n">
-        <v>95.6267</v>
+        <v>94.9308</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 03</t>
+          <t>30 Apr 03</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>96.8021</v>
+        <v>95.95569999999999</v>
       </c>
       <c r="C231" t="n">
-        <v>96.0843</v>
+        <v>95.6267</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 03</t>
+          <t>31 Mar 03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>98.4726</v>
+        <v>96.8021</v>
       </c>
       <c r="C232" t="n">
-        <v>96.2552</v>
+        <v>96.0843</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 03</t>
+          <t>28 Feb 03</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>99.89660000000001</v>
+        <v>98.4726</v>
       </c>
       <c r="C233" t="n">
-        <v>100.9186</v>
+        <v>96.2552</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 02</t>
+          <t>31 Jan 03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>100.6652</v>
+        <v>99.89660000000001</v>
       </c>
       <c r="C234" t="n">
-        <v>100.1861</v>
+        <v>100.9186</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 02</t>
+          <t>31 Dec 02</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>100.8857</v>
+        <v>100.6652</v>
       </c>
       <c r="C235" t="n">
-        <v>100.2974</v>
+        <v>100.1861</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 02</t>
+          <t>30 Nov 02</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>101.4447</v>
+        <v>100.8857</v>
       </c>
       <c r="C236" t="n">
-        <v>101.2092</v>
+        <v>100.2974</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 02</t>
+          <t>31 Oct 02</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>101.2329</v>
+        <v>101.4447</v>
       </c>
       <c r="C237" t="n">
-        <v>101.9596</v>
+        <v>101.2092</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 02</t>
+          <t>30 Sep 02</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>100.0907</v>
+        <v>101.2329</v>
       </c>
       <c r="C238" t="n">
-        <v>100.5216</v>
+        <v>101.9596</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 02</t>
+          <t>31 Aug 02</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>100.1562</v>
+        <v>100.0907</v>
       </c>
       <c r="C239" t="n">
-        <v>101.5902</v>
+        <v>100.5216</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 02</t>
+          <t>31 Jul 02</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>98.0057</v>
+        <v>100.1562</v>
       </c>
       <c r="C240" t="n">
-        <v>98.5617</v>
+        <v>101.5902</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>31 May 02</t>
+          <t>30 Jun 02</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>99.1553</v>
+        <v>98.0057</v>
       </c>
       <c r="C241" t="n">
-        <v>98.0256</v>
+        <v>98.5617</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 02</t>
+          <t>31 May 02</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>100.5217</v>
+        <v>99.1553</v>
       </c>
       <c r="C242" t="n">
-        <v>100.326</v>
+        <v>98.0256</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 02</t>
+          <t>30 Apr 02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>99.7945</v>
+        <v>100.5217</v>
       </c>
       <c r="C243" t="n">
-        <v>100.2792</v>
+        <v>100.326</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 02</t>
+          <t>31 Mar 02</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>100.4838</v>
+        <v>99.7945</v>
       </c>
       <c r="C244" t="n">
-        <v>100.2389</v>
+        <v>100.2792</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 02</t>
+          <t>28 Feb 02</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>100.26</v>
+        <v>100.4838</v>
       </c>
       <c r="C245" t="n">
-        <v>100.4766</v>
+        <v>100.2389</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 01</t>
+          <t>31 Jan 02</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>100.0899</v>
+        <v>100.26</v>
       </c>
       <c r="C246" t="n">
-        <v>101.4</v>
+        <v>100.4766</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 01</t>
+          <t>31 Dec 01</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>99.45050000000001</v>
+        <v>100.0899</v>
       </c>
       <c r="C247" t="n">
-        <v>98.4147</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 01</t>
+          <t>30 Nov 01</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>99.3536</v>
+        <v>99.45050000000001</v>
       </c>
       <c r="C248" t="n">
-        <v>99.9654</v>
+        <v>98.4147</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 01</t>
+          <t>31 Oct 01</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>99.5949</v>
+        <v>99.3536</v>
       </c>
       <c r="C249" t="n">
-        <v>100.1916</v>
+        <v>99.9654</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 01</t>
+          <t>30 Sep 01</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>98.42829999999999</v>
+        <v>99.5949</v>
       </c>
       <c r="C250" t="n">
-        <v>98.80719999999999</v>
+        <v>100.1916</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 01</t>
+          <t>31 Aug 01</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>99.7551</v>
+        <v>98.42829999999999</v>
       </c>
       <c r="C251" t="n">
-        <v>99.5792</v>
+        <v>98.80719999999999</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 01</t>
+          <t>31 Jul 01</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>99.21720000000001</v>
+        <v>99.7551</v>
       </c>
       <c r="C252" t="n">
-        <v>100.1569</v>
+        <v>99.5792</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>31 May 01</t>
+          <t>30 Jun 01</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>99.39060000000001</v>
+        <v>99.21720000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>100.7601</v>
+        <v>100.1569</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 01</t>
+          <t>31 May 01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>99.074</v>
+        <v>99.39060000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>99.07389999999999</v>
+        <v>100.7601</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 01</t>
+          <t>30 Apr 01</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>98.4528</v>
+        <v>99.074</v>
       </c>
       <c r="C255" t="n">
-        <v>98.7833</v>
+        <v>99.07389999999999</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 01</t>
+          <t>31 Mar 01</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>97.7179</v>
+        <v>98.4528</v>
       </c>
       <c r="C256" t="n">
-        <v>97.1795</v>
+        <v>98.7833</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 01</t>
+          <t>28 Feb 01</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>98.2362</v>
+        <v>97.7179</v>
       </c>
       <c r="C257" t="n">
-        <v>97.58839999999999</v>
+        <v>97.1795</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 00</t>
+          <t>31 Jan 01</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>99.4118</v>
+        <v>98.2362</v>
       </c>
       <c r="C258" t="n">
-        <v>99.0804</v>
+        <v>97.58839999999999</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 00</t>
+          <t>31 Dec 00</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>99.6623</v>
+        <v>99.4118</v>
       </c>
       <c r="C259" t="n">
-        <v>98.3309</v>
+        <v>99.0804</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 00</t>
+          <t>30 Nov 00</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>101.3391</v>
+        <v>99.6623</v>
       </c>
       <c r="C260" t="n">
-        <v>102.0985</v>
+        <v>98.3309</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 00</t>
+          <t>31 Oct 00</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>98.7465</v>
+        <v>101.3391</v>
       </c>
       <c r="C261" t="n">
-        <v>101.1746</v>
+        <v>102.0985</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 00</t>
+          <t>30 Sep 00</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>100.188</v>
+        <v>98.7465</v>
       </c>
       <c r="C262" t="n">
-        <v>98.87009999999999</v>
+        <v>101.1746</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 00</t>
+          <t>31 Aug 00</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>99.0767</v>
+        <v>100.188</v>
       </c>
       <c r="C263" t="n">
-        <v>99.443</v>
+        <v>98.87009999999999</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 00</t>
+          <t>31 Jul 00</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>98.30840000000001</v>
+        <v>99.0767</v>
       </c>
       <c r="C264" t="n">
-        <v>98.1615</v>
+        <v>99.443</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>31 May 00</t>
+          <t>30 Jun 00</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>101.3378</v>
+        <v>98.30840000000001</v>
       </c>
       <c r="C265" t="n">
-        <v>99.16419999999999</v>
+        <v>98.1615</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 00</t>
+          <t>31 May 00</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>103.3007</v>
+        <v>101.3378</v>
       </c>
       <c r="C266" t="n">
-        <v>104.7273</v>
+        <v>99.16419999999999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 00</t>
+          <t>30 Apr 00</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>101.9463</v>
+        <v>103.3007</v>
       </c>
       <c r="C267" t="n">
-        <v>103.2469</v>
+        <v>104.7273</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 00</t>
+          <t>31 Mar 00</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>102.1478</v>
+        <v>101.9463</v>
       </c>
       <c r="C268" t="n">
-        <v>102.264</v>
+        <v>103.2469</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 00</t>
+          <t>29 Feb 00</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>102.5163</v>
+        <v>102.1478</v>
       </c>
       <c r="C269" t="n">
-        <v>103.7842</v>
+        <v>102.264</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 99</t>
+          <t>31 Jan 00</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>100.9193</v>
+        <v>102.5163</v>
       </c>
       <c r="C270" t="n">
-        <v>101.3502</v>
+        <v>103.7842</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 99</t>
+          <t>31 Dec 99</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>100.3024</v>
+        <v>100.9193</v>
       </c>
       <c r="C271" t="n">
-        <v>99.9847</v>
+        <v>101.3502</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 99</t>
+          <t>30 Nov 99</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>100.3909</v>
+        <v>100.3024</v>
       </c>
       <c r="C272" t="n">
-        <v>100.5035</v>
+        <v>99.9847</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 99</t>
+          <t>31 Oct 99</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>99.5335</v>
+        <v>100.3909</v>
       </c>
       <c r="C273" t="n">
-        <v>100.1709</v>
+        <v>100.5035</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 99</t>
+          <t>30 Sep 99</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>98.36</v>
+        <v>99.5335</v>
       </c>
       <c r="C274" t="n">
-        <v>98.49460000000001</v>
+        <v>100.1709</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 99</t>
+          <t>31 Aug 99</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>98.12</v>
+        <v>98.36</v>
       </c>
       <c r="C275" t="n">
-        <v>98.8248</v>
+        <v>98.49460000000001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 99</t>
+          <t>31 Jul 99</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>99.3028</v>
+        <v>98.12</v>
       </c>
       <c r="C276" t="n">
-        <v>98.56999999999999</v>
+        <v>98.8248</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>31 May 99</t>
+          <t>30 Jun 99</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>99.3302</v>
+        <v>99.3028</v>
       </c>
       <c r="C277" t="n">
-        <v>99.5</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 99</t>
+          <t>31 May 99</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>98.5428</v>
+        <v>99.3302</v>
       </c>
       <c r="C278" t="n">
-        <v>99.2336</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 99</t>
+          <t>30 Apr 99</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>98.51949999999999</v>
+        <v>98.5428</v>
       </c>
       <c r="C279" t="n">
-        <v>98.4161</v>
+        <v>99.2336</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 99</t>
+          <t>31 Mar 99</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>96.8805</v>
+        <v>98.51949999999999</v>
       </c>
       <c r="C280" t="n">
-        <v>96.8831</v>
+        <v>98.4161</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 99</t>
+          <t>28 Feb 99</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>96.056</v>
+        <v>96.8805</v>
       </c>
       <c r="C281" t="n">
-        <v>97.0167</v>
+        <v>96.8831</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 98</t>
+          <t>31 Jan 99</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>96.9554</v>
+        <v>96.056</v>
       </c>
       <c r="C282" t="n">
-        <v>96.3447</v>
+        <v>97.0167</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 98</t>
+          <t>31 Dec 98</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>97.00230000000001</v>
+        <v>96.9554</v>
       </c>
       <c r="C283" t="n">
-        <v>96.87649999999999</v>
+        <v>96.3447</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 98</t>
+          <t>30 Nov 98</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>97.23139999999999</v>
+        <v>97.00230000000001</v>
       </c>
       <c r="C284" t="n">
-        <v>96.7555</v>
+        <v>96.87649999999999</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 98</t>
+          <t>31 Oct 98</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>99.4485</v>
+        <v>97.23139999999999</v>
       </c>
       <c r="C285" t="n">
-        <v>99.5865</v>
+        <v>96.7555</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 98</t>
+          <t>30 Sep 98</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>100.0982</v>
+        <v>99.4485</v>
       </c>
       <c r="C286" t="n">
-        <v>101.6903</v>
+        <v>99.5865</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 98</t>
+          <t>31 Aug 98</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>100.5671</v>
+        <v>100.0982</v>
       </c>
       <c r="C287" t="n">
-        <v>99.66889999999999</v>
+        <v>101.6903</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 98</t>
+          <t>31 Jul 98</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>100.6528</v>
+        <v>100.5671</v>
       </c>
       <c r="C288" t="n">
-        <v>102.3129</v>
+        <v>99.66889999999999</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>31 May 98</t>
+          <t>30 Jun 98</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>98.6985</v>
+        <v>100.6528</v>
       </c>
       <c r="C289" t="n">
-        <v>98.9405</v>
+        <v>102.3129</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 98</t>
+          <t>31 May 98</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>101.7932</v>
+        <v>98.6985</v>
       </c>
       <c r="C290" t="n">
-        <v>101.1967</v>
+        <v>98.9405</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 98</t>
+          <t>30 Apr 98</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>101.5267</v>
+        <v>101.7932</v>
       </c>
       <c r="C291" t="n">
-        <v>103.2635</v>
+        <v>101.1967</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 98</t>
+          <t>31 Mar 98</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>99.83799999999999</v>
+        <v>101.5267</v>
       </c>
       <c r="C292" t="n">
-        <v>100.3109</v>
+        <v>103.2635</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 98</t>
+          <t>28 Feb 98</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>100.1186</v>
+        <v>99.83799999999999</v>
       </c>
       <c r="C293" t="n">
-        <v>100.2085</v>
+        <v>100.3109</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 97</t>
+          <t>31 Jan 98</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>99.5889</v>
+        <v>100.1186</v>
       </c>
       <c r="C294" t="n">
-        <v>99.85080000000001</v>
+        <v>100.2085</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 97</t>
+          <t>31 Dec 97</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>99.17789999999999</v>
+        <v>99.5889</v>
       </c>
       <c r="C295" t="n">
-        <v>100.5245</v>
+        <v>99.85080000000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 97</t>
+          <t>30 Nov 97</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>96.36069999999999</v>
+        <v>99.17789999999999</v>
       </c>
       <c r="C296" t="n">
-        <v>98.02670000000001</v>
+        <v>100.5245</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 97</t>
+          <t>31 Oct 97</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>95.35899999999999</v>
+        <v>96.36069999999999</v>
       </c>
       <c r="C297" t="n">
-        <v>95.82259999999999</v>
+        <v>98.02670000000001</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 97</t>
+          <t>30 Sep 97</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>97.0244</v>
+        <v>95.35899999999999</v>
       </c>
       <c r="C298" t="n">
-        <v>97.2728</v>
+        <v>95.82259999999999</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 97</t>
+          <t>31 Aug 97</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>99.1108</v>
+        <v>97.0244</v>
       </c>
       <c r="C299" t="n">
-        <v>99.24469999999999</v>
+        <v>97.2728</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 97</t>
+          <t>31 Jul 97</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>95.5668</v>
+        <v>99.1108</v>
       </c>
       <c r="C300" t="n">
-        <v>97.42919999999999</v>
+        <v>99.24469999999999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>31 May 97</t>
+          <t>30 Jun 97</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>94.3993</v>
+        <v>95.5668</v>
       </c>
       <c r="C301" t="n">
-        <v>94.81019999999999</v>
+        <v>97.42919999999999</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 97</t>
+          <t>31 May 97</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>94.6524</v>
+        <v>94.3993</v>
       </c>
       <c r="C302" t="n">
-        <v>95.4217</v>
+        <v>94.81019999999999</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 97</t>
+          <t>30 Apr 97</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>92.81100000000001</v>
+        <v>94.6524</v>
       </c>
       <c r="C303" t="n">
-        <v>93.74939999999999</v>
+        <v>95.4217</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 97</t>
+          <t>31 Mar 97</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>92.9298</v>
+        <v>92.81100000000001</v>
       </c>
       <c r="C304" t="n">
-        <v>94.0369</v>
+        <v>93.74939999999999</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 97</t>
+          <t>28 Feb 97</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>91.977</v>
+        <v>92.9298</v>
       </c>
       <c r="C305" t="n">
-        <v>90.57640000000001</v>
+        <v>94.0369</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 96</t>
+          <t>31 Jan 97</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>90.3494</v>
+        <v>91.977</v>
       </c>
       <c r="C306" t="n">
-        <v>92.8584</v>
+        <v>90.57640000000001</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 96</t>
+          <t>31 Dec 96</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>88.77</v>
+        <v>90.3494</v>
       </c>
       <c r="C307" t="n">
-        <v>90.8263</v>
+        <v>92.8584</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 96</t>
+          <t>30 Nov 96</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>85.2591</v>
+        <v>88.77</v>
       </c>
       <c r="C308" t="n">
-        <v>87.3558</v>
+        <v>90.8263</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 96</t>
+          <t>31 Oct 96</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>83.1661</v>
+        <v>85.2591</v>
       </c>
       <c r="C309" t="n">
-        <v>84.181</v>
+        <v>87.3558</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 96</t>
+          <t>30 Sep 96</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>81.97190000000001</v>
+        <v>83.1661</v>
       </c>
       <c r="C310" t="n">
-        <v>82.7094</v>
+        <v>84.181</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 96</t>
+          <t>31 Aug 96</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>82.78149999999999</v>
+        <v>81.97190000000001</v>
       </c>
       <c r="C311" t="n">
-        <v>82.2285</v>
+        <v>82.7094</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 96</t>
+          <t>31 Jul 96</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>82.8596</v>
+        <v>82.78149999999999</v>
       </c>
       <c r="C312" t="n">
-        <v>83.5343</v>
+        <v>82.2285</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>31 May 96</t>
+          <t>30 Jun 96</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>81.4524</v>
+        <v>82.8596</v>
       </c>
       <c r="C313" t="n">
-        <v>83.48820000000001</v>
+        <v>83.5343</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 96</t>
+          <t>31 May 96</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>80.7444</v>
+        <v>81.4524</v>
       </c>
       <c r="C314" t="n">
-        <v>80.8544</v>
+        <v>83.48820000000001</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 96</t>
+          <t>30 Apr 96</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>80.6371</v>
+        <v>80.7444</v>
       </c>
       <c r="C315" t="n">
-        <v>80.7852</v>
+        <v>80.8544</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 96</t>
+          <t>31 Mar 96</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>80.9727</v>
+        <v>80.6371</v>
       </c>
       <c r="C316" t="n">
-        <v>80.8467</v>
+        <v>80.7852</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 96</t>
+          <t>29 Feb 96</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>80.41119999999999</v>
+        <v>80.9727</v>
       </c>
       <c r="C317" t="n">
-        <v>80.617</v>
+        <v>80.8467</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 95</t>
+          <t>31 Jan 96</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>80.1662</v>
+        <v>80.41119999999999</v>
       </c>
       <c r="C318" t="n">
-        <v>80.7218</v>
+        <v>80.617</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 95</t>
+          <t>31 Dec 95</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>80.631</v>
+        <v>80.1662</v>
       </c>
       <c r="C319" t="n">
-        <v>79.9605</v>
+        <v>80.7218</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 95</t>
+          <t>30 Nov 95</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>81.5077</v>
+        <v>80.631</v>
       </c>
       <c r="C320" t="n">
-        <v>81.5047</v>
+        <v>79.9605</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 95</t>
+          <t>31 Oct 95</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>81.86660000000001</v>
+        <v>81.5077</v>
       </c>
       <c r="C321" t="n">
-        <v>82.0286</v>
+        <v>81.5047</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 95</t>
+          <t>30 Sep 95</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>81.488</v>
+        <v>81.86660000000001</v>
       </c>
       <c r="C322" t="n">
-        <v>81.7467</v>
+        <v>82.0286</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 95</t>
+          <t>31 Aug 95</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>80.86669999999999</v>
+        <v>81.488</v>
       </c>
       <c r="C323" t="n">
-        <v>80.9727</v>
+        <v>81.7467</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 95</t>
+          <t>31 Jul 95</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>81.22450000000001</v>
+        <v>80.86669999999999</v>
       </c>
       <c r="C324" t="n">
-        <v>80.8663</v>
+        <v>80.9727</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>31 May 95</t>
+          <t>30 Jun 95</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>81.3045</v>
+        <v>81.22450000000001</v>
       </c>
       <c r="C325" t="n">
-        <v>81.5865</v>
+        <v>80.8663</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 95</t>
+          <t>31 May 95</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>81.53700000000001</v>
+        <v>81.3045</v>
       </c>
       <c r="C326" t="n">
-        <v>81.9362</v>
+        <v>81.5865</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 95</t>
+          <t>30 Apr 95</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>82.68049999999999</v>
+        <v>81.53700000000001</v>
       </c>
       <c r="C327" t="n">
-        <v>82.804</v>
+        <v>81.9362</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 95</t>
+          <t>31 Mar 95</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>84.1525</v>
+        <v>82.68049999999999</v>
       </c>
       <c r="C328" t="n">
-        <v>83.92619999999999</v>
+        <v>82.804</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 95</t>
+          <t>28 Feb 95</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>85.1542</v>
+        <v>84.1525</v>
       </c>
       <c r="C329" t="n">
-        <v>85.67749999999999</v>
+        <v>83.92619999999999</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 94</t>
+          <t>31 Jan 95</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>85.44580000000001</v>
+        <v>85.1542</v>
       </c>
       <c r="C330" t="n">
-        <v>85.3082</v>
+        <v>85.67749999999999</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 94</t>
+          <t>31 Dec 94</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>85.68089999999999</v>
+        <v>85.44580000000001</v>
       </c>
       <c r="C331" t="n">
-        <v>85.7941</v>
+        <v>85.3082</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 94</t>
+          <t>30 Nov 94</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>85.87009999999999</v>
+        <v>85.68089999999999</v>
       </c>
       <c r="C332" t="n">
-        <v>86.8456</v>
+        <v>85.7941</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 94</t>
+          <t>31 Oct 94</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>84.84950000000001</v>
+        <v>85.87009999999999</v>
       </c>
       <c r="C333" t="n">
-        <v>85.6306</v>
+        <v>86.8456</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 94</t>
+          <t>30 Sep 94</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>84.4284</v>
+        <v>84.84950000000001</v>
       </c>
       <c r="C334" t="n">
-        <v>84.6549</v>
+        <v>85.6306</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 94</t>
+          <t>31 Aug 94</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>84.6189</v>
+        <v>84.4284</v>
       </c>
       <c r="C335" t="n">
-        <v>85.0245</v>
+        <v>84.6549</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 94</t>
+          <t>31 Jul 94</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>85.5089</v>
+        <v>84.6189</v>
       </c>
       <c r="C336" t="n">
-        <v>85.4329</v>
+        <v>85.0245</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>31 May 94</t>
+          <t>30 Jun 94</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>85.2106</v>
+        <v>85.5089</v>
       </c>
       <c r="C337" t="n">
-        <v>85.5808</v>
+        <v>85.4329</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 94</t>
+          <t>31 May 94</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>85.1938</v>
+        <v>85.2106</v>
       </c>
       <c r="C338" t="n">
-        <v>85.8909</v>
+        <v>85.5808</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 94</t>
+          <t>30 Apr 94</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>85.76690000000001</v>
+        <v>85.1938</v>
       </c>
       <c r="C339" t="n">
-        <v>84.7462</v>
+        <v>85.8909</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 94</t>
+          <t>31 Mar 94</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>86.1313</v>
+        <v>85.76690000000001</v>
       </c>
       <c r="C340" t="n">
-        <v>85.9833</v>
+        <v>84.7462</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 94</t>
+          <t>28 Feb 94</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>87.578</v>
+        <v>86.1313</v>
       </c>
       <c r="C341" t="n">
-        <v>87.7778</v>
+        <v>85.9833</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 93</t>
+          <t>31 Jan 94</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>86.8189</v>
+        <v>87.578</v>
       </c>
       <c r="C342" t="n">
-        <v>87.15349999999999</v>
+        <v>87.7778</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 93</t>
+          <t>31 Dec 93</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>86.12139999999999</v>
+        <v>86.8189</v>
       </c>
       <c r="C343" t="n">
-        <v>87.22929999999999</v>
+        <v>87.15349999999999</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 93</t>
+          <t>30 Nov 93</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>85.5903</v>
+        <v>86.12139999999999</v>
       </c>
       <c r="C344" t="n">
-        <v>86.1203</v>
+        <v>87.22929999999999</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 93</t>
+          <t>31 Oct 93</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>86.1725</v>
+        <v>85.5903</v>
       </c>
       <c r="C345" t="n">
-        <v>85.1525</v>
+        <v>86.1203</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 93</t>
+          <t>30 Sep 93</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>86.333</v>
+        <v>86.1725</v>
       </c>
       <c r="C346" t="n">
-        <v>85.91070000000001</v>
+        <v>85.1525</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 93</t>
+          <t>31 Aug 93</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>86.48739999999999</v>
+        <v>86.333</v>
       </c>
       <c r="C347" t="n">
-        <v>87.1527</v>
+        <v>85.91070000000001</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 93</t>
+          <t>31 Jul 93</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>84.703</v>
+        <v>86.48739999999999</v>
       </c>
       <c r="C348" t="n">
-        <v>85.7769</v>
+        <v>87.1527</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>31 May 93</t>
+          <t>30 Jun 93</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>85.47580000000001</v>
+        <v>84.703</v>
       </c>
       <c r="C349" t="n">
-        <v>85.6998</v>
+        <v>85.7769</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 93</t>
+          <t>31 May 93</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>85.30840000000001</v>
+        <v>85.47580000000001</v>
       </c>
       <c r="C350" t="n">
-        <v>86.2791</v>
+        <v>85.6998</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 93</t>
+          <t>30 Apr 93</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>82.6758</v>
+        <v>85.30840000000001</v>
       </c>
       <c r="C351" t="n">
-        <v>84.26439999999999</v>
+        <v>86.2791</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 93</t>
+          <t>31 Mar 93</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>81.2427</v>
+        <v>82.6758</v>
       </c>
       <c r="C352" t="n">
-        <v>80.6557</v>
+        <v>84.26439999999999</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 93</t>
+          <t>28 Feb 93</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>85.3365</v>
+        <v>81.2427</v>
       </c>
       <c r="C353" t="n">
-        <v>82.8909</v>
+        <v>80.6557</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 92</t>
+          <t>31 Jan 93</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>84.8865</v>
+        <v>85.3365</v>
       </c>
       <c r="C354" t="n">
-        <v>84.4633</v>
+        <v>82.8909</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 92</t>
+          <t>31 Dec 92</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>83.0956</v>
+        <v>84.8865</v>
       </c>
       <c r="C355" t="n">
-        <v>83.2189</v>
+        <v>84.4633</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 92</t>
+          <t>30 Nov 92</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>85.93819999999999</v>
+        <v>83.0956</v>
       </c>
       <c r="C356" t="n">
-        <v>83.3567</v>
+        <v>83.2189</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 92</t>
+          <t>31 Oct 92</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>93.727</v>
+        <v>85.93819999999999</v>
       </c>
       <c r="C357" t="n">
-        <v>89.5089</v>
+        <v>83.3567</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 92</t>
+          <t>30 Sep 92</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>97.65389999999999</v>
+        <v>93.727</v>
       </c>
       <c r="C358" t="n">
-        <v>98.0467</v>
+        <v>89.5089</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 92</t>
+          <t>31 Aug 92</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>98.0534</v>
+        <v>97.65389999999999</v>
       </c>
       <c r="C359" t="n">
-        <v>98.02200000000001</v>
+        <v>98.0467</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 92</t>
+          <t>31 Jul 92</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>98.0414</v>
+        <v>98.0534</v>
       </c>
       <c r="C360" t="n">
-        <v>98.85209999999999</v>
+        <v>98.02200000000001</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>31 May 92</t>
+          <t>30 Jun 92</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>97.7817</v>
+        <v>98.0414</v>
       </c>
       <c r="C361" t="n">
-        <v>98.1673</v>
+        <v>98.85209999999999</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 92</t>
+          <t>31 May 92</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>96.2251</v>
+        <v>97.7817</v>
       </c>
       <c r="C362" t="n">
-        <v>97.4903</v>
+        <v>98.1673</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 92</t>
+          <t>30 Apr 92</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>94.9666</v>
+        <v>96.2251</v>
       </c>
       <c r="C363" t="n">
-        <v>95.22799999999999</v>
+        <v>97.4903</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 92</t>
+          <t>31 Mar 92</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>95.873</v>
+        <v>94.9666</v>
       </c>
       <c r="C364" t="n">
-        <v>95.92140000000001</v>
+        <v>95.22799999999999</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 92</t>
+          <t>29 Feb 92</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>95.8466</v>
+        <v>95.873</v>
       </c>
       <c r="C365" t="n">
-        <v>96.1571</v>
+        <v>95.92140000000001</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 91</t>
+          <t>31 Jan 92</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>96.3579</v>
+        <v>95.8466</v>
       </c>
       <c r="C366" t="n">
-        <v>96.9177</v>
+        <v>96.1571</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 91</t>
+          <t>31 Dec 91</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>96.004</v>
+        <v>96.3579</v>
       </c>
       <c r="C367" t="n">
-        <v>95.8304</v>
+        <v>96.9177</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 91</t>
+          <t>30 Nov 91</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>95.40389999999999</v>
+        <v>96.004</v>
       </c>
       <c r="C368" t="n">
-        <v>96.0189</v>
+        <v>95.8304</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 91</t>
+          <t>31 Oct 91</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>95.9071</v>
+        <v>95.40389999999999</v>
       </c>
       <c r="C369" t="n">
-        <v>96.3892</v>
+        <v>96.0189</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 91</t>
+          <t>30 Sep 91</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>95.52760000000001</v>
+        <v>95.9071</v>
       </c>
       <c r="C370" t="n">
-        <v>95.7238</v>
+        <v>96.3892</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 91</t>
+          <t>31 Aug 91</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>95.0787</v>
+        <v>95.52760000000001</v>
       </c>
       <c r="C371" t="n">
-        <v>95.9389</v>
+        <v>95.7238</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 91</t>
+          <t>31 Jul 91</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>94.80889999999999</v>
+        <v>95.0787</v>
       </c>
       <c r="C372" t="n">
-        <v>94.2543</v>
+        <v>95.9389</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>31 May 91</t>
+          <t>30 Jun 91</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>96.4782</v>
+        <v>94.80889999999999</v>
       </c>
       <c r="C373" t="n">
-        <v>96.13460000000001</v>
+        <v>94.2543</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 91</t>
+          <t>31 May 91</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>97.15049999999999</v>
+        <v>96.4782</v>
       </c>
       <c r="C374" t="n">
-        <v>96.4559</v>
+        <v>96.13460000000001</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 91</t>
+          <t>30 Apr 91</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>97.8199</v>
+        <v>97.15049999999999</v>
       </c>
       <c r="C375" t="n">
-        <v>97.2718</v>
+        <v>96.4559</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 91</t>
+          <t>31 Mar 91</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>99.4606</v>
+        <v>97.8199</v>
       </c>
       <c r="C376" t="n">
-        <v>99.072</v>
+        <v>97.2718</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 91</t>
+          <t>28 Feb 91</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>99.3841</v>
+        <v>99.4606</v>
       </c>
       <c r="C377" t="n">
-        <v>99.7942</v>
+        <v>99.072</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 90</t>
+          <t>31 Jan 91</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>98.51730000000001</v>
+        <v>99.3841</v>
       </c>
       <c r="C378" t="n">
-        <v>99.092</v>
+        <v>99.7942</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 90</t>
+          <t>31 Dec 90</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>99.59099999999999</v>
+        <v>98.51730000000001</v>
       </c>
       <c r="C379" t="n">
-        <v>99.4974</v>
+        <v>99.092</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 90</t>
+          <t>30 Nov 90</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>100.1517</v>
+        <v>99.59099999999999</v>
       </c>
       <c r="C380" t="n">
-        <v>100.0337</v>
+        <v>99.4974</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 90</t>
+          <t>31 Oct 90</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>98.93640000000001</v>
+        <v>100.1517</v>
       </c>
       <c r="C381" t="n">
-        <v>98.68049999999999</v>
+        <v>100.0337</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 90</t>
+          <t>30 Sep 90</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>100.3208</v>
+        <v>98.93640000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>100.2897</v>
+        <v>98.68049999999999</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 90</t>
+          <t>31 Aug 90</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>98.1865</v>
+        <v>100.3208</v>
       </c>
       <c r="C383" t="n">
-        <v>99.1129</v>
+        <v>100.2897</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 90</t>
+          <t>31 Jul 90</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>94.79810000000001</v>
+        <v>98.1865</v>
       </c>
       <c r="C384" t="n">
-        <v>96.1682</v>
+        <v>99.1129</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>31 May 90</t>
+          <t>30 Jun 90</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>92.4225</v>
+        <v>94.79810000000001</v>
       </c>
       <c r="C385" t="n">
-        <v>93.7264</v>
+        <v>96.1682</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 90</t>
+          <t>31 May 90</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>91.3224</v>
+        <v>92.4225</v>
       </c>
       <c r="C386" t="n">
-        <v>91.2955</v>
+        <v>93.7264</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 90</t>
+          <t>30 Apr 90</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>91.12050000000001</v>
+        <v>91.3224</v>
       </c>
       <c r="C387" t="n">
-        <v>92.2266</v>
+        <v>91.2955</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 90</t>
+          <t>31 Mar 90</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>93.82769999999999</v>
+        <v>91.12050000000001</v>
       </c>
       <c r="C388" t="n">
-        <v>94.4273</v>
+        <v>92.2266</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 90</t>
+          <t>28 Feb 90</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>91.916</v>
+        <v>93.82769999999999</v>
       </c>
       <c r="C389" t="n">
-        <v>93.4727</v>
+        <v>94.4273</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 89</t>
+          <t>31 Jan 90</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>90.3682</v>
-      </c>
-      <c r="C390" t="inlineStr"/>
+        <v>91.916</v>
+      </c>
+      <c r="C390" t="n">
+        <v>93.4727</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 89</t>
+          <t>31 Dec 89</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>91.62949999999999</v>
+        <v>90.3682</v>
       </c>
       <c r="C391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 89</t>
+          <t>30 Nov 89</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>93.47150000000001</v>
+        <v>91.62949999999999</v>
       </c>
       <c r="C392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 89</t>
+          <t>31 Oct 89</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>94.9118</v>
+        <v>93.47150000000001</v>
       </c>
       <c r="C393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 89</t>
+          <t>30 Sep 89</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>95.4466</v>
+        <v>94.9118</v>
       </c>
       <c r="C394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 89</t>
+          <t>31 Aug 89</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>96.17489999999999</v>
+        <v>95.4466</v>
       </c>
       <c r="C395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 89</t>
+          <t>31 Jul 89</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>94.81699999999999</v>
+        <v>96.17489999999999</v>
       </c>
       <c r="C396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>31 May 89</t>
+          <t>30 Jun 89</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>97.98139999999999</v>
+        <v>94.81699999999999</v>
       </c>
       <c r="C397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 89</t>
+          <t>31 May 89</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>99.4027</v>
+        <v>97.98139999999999</v>
       </c>
       <c r="C398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 89</t>
+          <t>30 Apr 89</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>99.9923</v>
+        <v>99.4027</v>
       </c>
       <c r="C399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 89</t>
+          <t>31 Mar 89</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>101.4613</v>
+        <v>99.9923</v>
       </c>
       <c r="C400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 89</t>
+          <t>28 Feb 89</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>102.029</v>
+        <v>101.4613</v>
       </c>
       <c r="C401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 88</t>
+          <t>31 Jan 89</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>102.1424</v>
+        <v>102.029</v>
       </c>
       <c r="C402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 88</t>
+          <t>31 Dec 88</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>101.0288</v>
+        <v>102.1424</v>
       </c>
       <c r="C403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 88</t>
+          <t>30 Nov 88</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>100.0038</v>
+        <v>101.0288</v>
       </c>
       <c r="C404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 88</t>
+          <t>31 Oct 88</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>98.93689999999999</v>
+        <v>100.0038</v>
       </c>
       <c r="C405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 88</t>
+          <t>30 Sep 88</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>100.0963</v>
+        <v>98.93689999999999</v>
       </c>
       <c r="C406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 88</t>
+          <t>31 Aug 88</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>98.82689999999999</v>
+        <v>100.0963</v>
       </c>
       <c r="C407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 88</t>
+          <t>31 Jul 88</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>99.3163</v>
+        <v>98.82689999999999</v>
       </c>
       <c r="C408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>31 May 88</t>
+          <t>30 Jun 88</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>101.8928</v>
+        <v>99.3163</v>
       </c>
       <c r="C409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 88</t>
+          <t>31 May 88</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>101.5989</v>
+        <v>101.8928</v>
       </c>
       <c r="C410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 88</t>
+          <t>30 Apr 88</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>99.5351</v>
+        <v>101.5989</v>
       </c>
       <c r="C411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 88</t>
+          <t>31 Mar 88</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>96.4007</v>
+        <v>99.5351</v>
       </c>
       <c r="C412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 88</t>
+          <t>29 Feb 88</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>97.1855</v>
+        <v>96.4007</v>
       </c>
       <c r="C413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 87</t>
+          <t>31 Jan 88</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>98.0775</v>
+        <v>97.1855</v>
       </c>
       <c r="C414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 87</t>
+          <t>31 Dec 87</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>97.5873</v>
+        <v>98.0775</v>
       </c>
       <c r="C415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 87</t>
+          <t>30 Nov 87</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>95.3476</v>
+        <v>97.5873</v>
       </c>
       <c r="C416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 87</t>
+          <t>31 Oct 87</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>94.7662</v>
+        <v>95.3476</v>
       </c>
       <c r="C417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 87</t>
+          <t>30 Sep 87</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>93.8526</v>
+        <v>94.7662</v>
       </c>
       <c r="C418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 87</t>
+          <t>31 Aug 87</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>94.2777</v>
+        <v>93.8526</v>
       </c>
       <c r="C419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 87</t>
+          <t>31 Jul 87</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>94.2071</v>
+        <v>94.2777</v>
       </c>
       <c r="C420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>31 May 87</t>
+          <t>30 Jun 87</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>95.0823</v>
+        <v>94.2071</v>
       </c>
       <c r="C421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 87</t>
+          <t>31 May 87</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>93.82850000000001</v>
+        <v>95.0823</v>
       </c>
       <c r="C422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 87</t>
+          <t>30 Apr 87</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>93.02970000000001</v>
+        <v>93.82850000000001</v>
       </c>
       <c r="C423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 87</t>
+          <t>31 Mar 87</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>89.42</v>
+        <v>93.02970000000001</v>
       </c>
       <c r="C424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 87</t>
+          <t>28 Feb 87</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>89.303</v>
+        <v>89.42</v>
       </c>
       <c r="C425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 86</t>
+          <t>31 Jan 87</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>88.97839999999999</v>
+        <v>89.303</v>
       </c>
       <c r="C426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 86</t>
+          <t>31 Dec 86</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>89.0164</v>
+        <v>88.97839999999999</v>
       </c>
       <c r="C427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 86</t>
+          <t>30 Nov 86</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>88.2752</v>
+        <v>89.0164</v>
       </c>
       <c r="C428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 86</t>
+          <t>31 Oct 86</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>91.6927</v>
+        <v>88.2752</v>
       </c>
       <c r="C429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 86</t>
+          <t>30 Sep 86</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>93.2105</v>
+        <v>91.6927</v>
       </c>
       <c r="C430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 86</t>
+          <t>31 Aug 86</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>96.548</v>
+        <v>93.2105</v>
       </c>
       <c r="C431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 86</t>
+          <t>31 Jul 86</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>98.65730000000001</v>
+        <v>96.548</v>
       </c>
       <c r="C432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>31 May 86</t>
+          <t>30 Jun 86</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>98.7383</v>
+        <v>98.65730000000001</v>
       </c>
       <c r="C433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 86</t>
+          <t>31 May 86</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>98.48050000000001</v>
+        <v>98.7383</v>
       </c>
       <c r="C434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 86</t>
+          <t>30 Apr 86</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>96.23009999999999</v>
+        <v>98.48050000000001</v>
       </c>
       <c r="C435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 86</t>
+          <t>31 Mar 86</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>95.48650000000001</v>
+        <v>96.23009999999999</v>
       </c>
       <c r="C436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 86</t>
+          <t>28 Feb 86</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>98.4603</v>
+        <v>95.48650000000001</v>
       </c>
       <c r="C437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 85</t>
+          <t>31 Jan 86</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>101.6738</v>
+        <v>98.4603</v>
       </c>
       <c r="C438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 85</t>
+          <t>31 Dec 85</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>102.9227</v>
+        <v>101.6738</v>
       </c>
       <c r="C439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 85</t>
+          <t>30 Nov 85</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>102.93</v>
+        <v>102.9227</v>
       </c>
       <c r="C440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 85</t>
+          <t>31 Oct 85</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>103.4923</v>
+        <v>102.93</v>
       </c>
       <c r="C441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 85</t>
+          <t>30 Sep 85</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>103.5883</v>
+        <v>103.4923</v>
       </c>
       <c r="C442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 85</t>
+          <t>31 Aug 85</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>105.2434</v>
+        <v>103.5883</v>
       </c>
       <c r="C443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 85</t>
+          <t>31 Jul 85</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>101.1782</v>
+        <v>105.2434</v>
       </c>
       <c r="C444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>31 May 85</t>
+          <t>30 Jun 85</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>99.6444</v>
+        <v>101.1782</v>
       </c>
       <c r="C445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 85</t>
+          <t>31 May 85</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>98.5001</v>
+        <v>99.6444</v>
       </c>
       <c r="C446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 85</t>
+          <t>30 Apr 85</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>93.0086</v>
+        <v>98.5001</v>
       </c>
       <c r="C447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 85</t>
+          <t>31 Mar 85</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>90.2698</v>
+        <v>93.0086</v>
       </c>
       <c r="C448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 85</t>
+          <t>28 Feb 85</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>90.5384</v>
+        <v>90.2698</v>
       </c>
       <c r="C449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 84</t>
+          <t>31 Jan 85</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>93.565</v>
+        <v>90.5384</v>
       </c>
       <c r="C450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 84</t>
+          <t>31 Dec 84</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>95.5493</v>
+        <v>93.565</v>
       </c>
       <c r="C451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 84</t>
+          <t>30 Nov 84</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>95.4295</v>
+        <v>95.5493</v>
       </c>
       <c r="C452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 84</t>
+          <t>31 Oct 84</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>97.36450000000001</v>
+        <v>95.4295</v>
       </c>
       <c r="C453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 84</t>
+          <t>30 Sep 84</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>98.6063</v>
+        <v>97.36450000000001</v>
       </c>
       <c r="C454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 84</t>
+          <t>31 Aug 84</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>98.43519999999999</v>
+        <v>98.6063</v>
       </c>
       <c r="C455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 84</t>
+          <t>31 Jul 84</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>99.4821</v>
+        <v>98.43519999999999</v>
       </c>
       <c r="C456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>31 May 84</t>
+          <t>30 Jun 84</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>100.2829</v>
+        <v>99.4821</v>
       </c>
       <c r="C457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 84</t>
+          <t>31 May 84</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>100.0714</v>
+        <v>100.2829</v>
       </c>
       <c r="C458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 84</t>
+          <t>30 Apr 84</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>101.3173</v>
+        <v>100.0714</v>
       </c>
       <c r="C459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 84</t>
+          <t>31 Mar 84</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>102.7544</v>
+        <v>101.3173</v>
       </c>
       <c r="C460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 84</t>
+          <t>29 Feb 84</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>102.5966</v>
+        <v>102.7544</v>
       </c>
       <c r="C461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 83</t>
+          <t>31 Jan 84</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>103.0006</v>
+        <v>102.5966</v>
       </c>
       <c r="C462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 83</t>
+          <t>31 Dec 83</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>104.4086</v>
+        <v>103.0006</v>
       </c>
       <c r="C463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 83</t>
+          <t>30 Nov 83</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>103.9427</v>
+        <v>104.4086</v>
       </c>
       <c r="C464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 83</t>
+          <t>31 Oct 83</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>105.4512</v>
+        <v>103.9427</v>
       </c>
       <c r="C465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 83</t>
+          <t>30 Sep 83</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>105.5258</v>
+        <v>105.4512</v>
       </c>
       <c r="C466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 83</t>
+          <t>31 Aug 83</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>105.0263</v>
+        <v>105.5258</v>
       </c>
       <c r="C467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 83</t>
+          <t>31 Jul 83</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>105.2594</v>
+        <v>105.0263</v>
       </c>
       <c r="C468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>31 May 83</t>
+          <t>30 Jun 83</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>104.6488</v>
+        <v>105.2594</v>
       </c>
       <c r="C469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 83</t>
+          <t>31 May 83</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>102.057</v>
+        <v>104.6488</v>
       </c>
       <c r="C470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 83</t>
+          <t>30 Apr 83</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>97.3305</v>
+        <v>102.057</v>
       </c>
       <c r="C471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 83</t>
+          <t>31 Mar 83</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>99.4067</v>
+        <v>97.3305</v>
       </c>
       <c r="C472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 83</t>
+          <t>28 Feb 83</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>101.1444</v>
+        <v>99.4067</v>
       </c>
       <c r="C473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 82</t>
+          <t>31 Jan 83</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>105.1338</v>
+        <v>101.1444</v>
       </c>
       <c r="C474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 82</t>
+          <t>31 Dec 82</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>109.6476</v>
+        <v>105.1338</v>
       </c>
       <c r="C475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 82</t>
+          <t>30 Nov 82</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>112.9782</v>
+        <v>109.6476</v>
       </c>
       <c r="C476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 82</t>
+          <t>31 Oct 82</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>111.9657</v>
+        <v>112.9782</v>
       </c>
       <c r="C477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 82</t>
+          <t>30 Sep 82</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>111.716</v>
+        <v>111.9657</v>
       </c>
       <c r="C478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 82</t>
+          <t>31 Aug 82</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>111.5093</v>
+        <v>111.716</v>
       </c>
       <c r="C479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 82</t>
+          <t>31 Jul 82</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>111.2704</v>
+        <v>111.5093</v>
       </c>
       <c r="C480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>31 May 82</t>
+          <t>30 Jun 82</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>109.9276</v>
+        <v>111.2704</v>
       </c>
       <c r="C481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 82</t>
+          <t>31 May 82</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>109.9673</v>
+        <v>109.9276</v>
       </c>
       <c r="C482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 82</t>
+          <t>30 Apr 82</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>111.1062</v>
+        <v>109.9673</v>
       </c>
       <c r="C483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 82</t>
+          <t>31 Mar 82</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>111.9885</v>
+        <v>111.1062</v>
       </c>
       <c r="C484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 82</t>
+          <t>28 Feb 82</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>111.6002</v>
+        <v>111.9885</v>
       </c>
       <c r="C485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 81</t>
+          <t>31 Jan 82</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>111.045</v>
+        <v>111.6002</v>
       </c>
       <c r="C486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 81</t>
+          <t>31 Dec 81</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>110.1598</v>
+        <v>111.045</v>
       </c>
       <c r="C487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 81</t>
+          <t>30 Nov 81</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>107.7912</v>
+        <v>110.1598</v>
       </c>
       <c r="C488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 81</t>
+          <t>31 Oct 81</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>107.8832</v>
+        <v>107.7912</v>
       </c>
       <c r="C489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 81</t>
+          <t>30 Sep 81</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>111.9279</v>
+        <v>107.8832</v>
       </c>
       <c r="C490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 81</t>
+          <t>31 Aug 81</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>113.1634</v>
+        <v>111.9279</v>
       </c>
       <c r="C491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 81</t>
+          <t>31 Jul 81</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>116.8396</v>
+        <v>113.1634</v>
       </c>
       <c r="C492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>31 May 81</t>
+          <t>30 Jun 81</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>120.6875</v>
+        <v>116.8396</v>
       </c>
       <c r="C493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 81</t>
+          <t>31 May 81</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>120.9701</v>
+        <v>120.6875</v>
       </c>
       <c r="C494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 81</t>
+          <t>30 Apr 81</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>121.5437</v>
+        <v>120.9701</v>
       </c>
       <c r="C495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 81</t>
+          <t>31 Mar 81</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>125.2989</v>
+        <v>121.5437</v>
       </c>
       <c r="C496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 81</t>
+          <t>28 Feb 81</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>125.5761</v>
+        <v>125.2989</v>
       </c>
       <c r="C497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 80</t>
+          <t>31 Jan 81</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>121.3333</v>
+        <v>125.5761</v>
       </c>
       <c r="C498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 80</t>
+          <t>31 Dec 80</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>121.6332</v>
+        <v>121.3333</v>
       </c>
       <c r="C499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 80</t>
+          <t>30 Nov 80</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>119.3254</v>
+        <v>121.6332</v>
       </c>
       <c r="C500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 80</t>
+          <t>31 Oct 80</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>117.0554</v>
+        <v>119.3254</v>
       </c>
       <c r="C501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 80</t>
+          <t>30 Sep 80</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>115.8849</v>
+        <v>117.0554</v>
       </c>
       <c r="C502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 80</t>
+          <t>31 Aug 80</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>114.1814</v>
+        <v>115.8849</v>
       </c>
       <c r="C503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 80</t>
+          <t>31 Jul 80</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>113.1464</v>
+        <v>114.1814</v>
       </c>
       <c r="C504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>31 May 80</t>
+          <t>30 Jun 80</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>112.8685</v>
+        <v>113.1464</v>
       </c>
       <c r="C505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 80</t>
+          <t>31 May 80</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>112.1907</v>
+        <v>112.8685</v>
       </c>
       <c r="C506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 80</t>
+          <t>30 Apr 80</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>111.0828</v>
+        <v>112.1907</v>
       </c>
       <c r="C507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 80</t>
+          <t>31 Mar 80</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>110.8123</v>
+        <v>111.0828</v>
       </c>
       <c r="C508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
+          <t>29 Feb 80</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>110.8123</v>
+      </c>
+      <c r="C509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
           <t>31 Jan 80</t>
         </is>
       </c>
-      <c r="B509" t="n">
+      <c r="B510" t="n">
         <v>108.658</v>
       </c>
-      <c r="C509" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
